--- a/sources/Dargwa_Icari_data.xlsx
+++ b/sources/Dargwa_Icari_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Dargwa_Icari" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dargwa_Icari!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dargwa_Icari!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="793">
   <si>
     <t>language_no</t>
   </si>
@@ -1992,18 +1992,9 @@
     <t>уруцц-ик1в-ил-ца=в</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>agreement: yes</t>
-  </si>
-  <si>
     <t>GEN</t>
   </si>
   <si>
@@ -2013,24 +2004,9 @@
     <t>GEN_ABS</t>
   </si>
   <si>
-    <t>Цепочка из экспериенцера/посессора и части тела как минимум разрывается, засчитываю как две разных ИГ</t>
-  </si>
-  <si>
     <t>ABS_GEN</t>
   </si>
   <si>
-    <t>Букв. "стать"</t>
-  </si>
-  <si>
-    <t>ANTE_ELAT</t>
-  </si>
-  <si>
-    <t>ABS_ANTE_ELAT</t>
-  </si>
-  <si>
-    <t>Показатель sa-r</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
@@ -2040,355 +2016,391 @@
     <t>SUPLAT_ABS</t>
   </si>
   <si>
-    <t>PREF (ON+UP). В файле с глоссами DAT и SUPER отглоссированы по-разному, но при этом это один и тот же показатель и, по словам РМ, "некоторые их считают одним падежом, либо считают, что датив произошел от суперлатива". Для меня это, очевидно, одно и то же</t>
-  </si>
-  <si>
     <t>ABS_SUPLAT</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>То же, что "верить" (114). PREF (ON)</t>
-  </si>
-  <si>
-    <t>PREF (UP)</t>
-  </si>
-  <si>
-    <t>PREF (ON)</t>
-  </si>
-  <si>
     <t>ERG</t>
   </si>
   <si>
     <t>ERG_SUPLAT</t>
   </si>
   <si>
-    <t>CV ("делать влияние")</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
     <t>ILL</t>
   </si>
   <si>
     <t>ABS_ILL</t>
   </si>
   <si>
-    <t>PREF (ВНУТРЬ+UP)</t>
-  </si>
-  <si>
     <t>ELAT</t>
   </si>
   <si>
     <t>ABS_ELAT</t>
   </si>
   <si>
-    <t>PREF (ON), NV</t>
-  </si>
-  <si>
-    <t>PREF (ВНЕ)</t>
-  </si>
-  <si>
-    <t>CAUS</t>
-  </si>
-  <si>
     <t>ERG_ILL</t>
   </si>
   <si>
-    <t>PREF (В.РУКИ)</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>ABS_POST</t>
   </si>
   <si>
-    <t>PREF (POST)</t>
-  </si>
-  <si>
-    <t>ILL_COMIT</t>
-  </si>
-  <si>
-    <t>ABS_ILL_COMIT</t>
-  </si>
-  <si>
-    <t>PREF (UP). Тот же глагол, что 99, ссориться</t>
-  </si>
-  <si>
-    <t>NV. Не засчитываю (X -- друг Y-а)</t>
-  </si>
-  <si>
-    <t>SUPLAT_CONT</t>
-  </si>
-  <si>
-    <t>ABS_SUPLAT_CONT</t>
-  </si>
-  <si>
-    <t>LV. То же, что 48, мечтать</t>
-  </si>
-  <si>
-    <t>PREF (POST, DOWN)</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
-    <t>SUPLAT_SUPLAT_CONT</t>
-  </si>
-  <si>
-    <t>ILL_ELAT</t>
-  </si>
-  <si>
-    <t>ABS_ILL_ELAT</t>
-  </si>
-  <si>
-    <t>букв. "хотеть", то же, что 46 (хотеть) и 121 (любить)</t>
-  </si>
-  <si>
-    <t>PREF (SUB, ELAT). Пока включил в модель управления именно ANTEELAT, хотя в этом случае Расул предлагал считать, что в модель входит только просто ELAT</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что 85, рожать</t>
-  </si>
-  <si>
     <t>SUPLATchi</t>
   </si>
   <si>
     <t>ABS_SUPLATchi</t>
   </si>
   <si>
-    <t>CV (издевательство делать)</t>
-  </si>
-  <si>
-    <t>Это просто "быть"/"иметься"</t>
-  </si>
-  <si>
-    <t>POST_ELAT</t>
-  </si>
-  <si>
-    <t>ABS_POST_ELAT</t>
-  </si>
-  <si>
-    <t>PREF (ON); LV</t>
-  </si>
-  <si>
     <t>akkwal</t>
   </si>
   <si>
     <t>ABS_akkwal</t>
   </si>
   <si>
-    <t>PREF (DOWN); Букв. "Х дом не.быть остался"</t>
-  </si>
-  <si>
-    <t>хвала-делать</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что "хотеть", 121 (и 30, зависеть)</t>
-  </si>
-  <si>
     <t>ABS_ERG</t>
   </si>
   <si>
-    <t>LV. То же, что 25, думать</t>
-  </si>
-  <si>
-    <t>ABSnoagr</t>
-  </si>
-  <si>
-    <t>SUPLAT_ABSnoagr</t>
-  </si>
-  <si>
-    <t>Это конструкция с неназванным агенсом (типа "(люди) этой вещи говорят "компас"")</t>
-  </si>
-  <si>
-    <t>получено только "бить". Не засчитываю.</t>
-  </si>
-  <si>
-    <t>NEG + хватать (5); PREF (ON; UP). На прямой вопрос о структуре составляющих Расул написал, что посессор не входит в группу абсолютива</t>
-  </si>
-  <si>
-    <t>CV (букв. "видеть не любит"), идиоматическое прочтение</t>
-  </si>
-  <si>
-    <t>CAUS, тот же глагол, что 119, любить-2</t>
-  </si>
-  <si>
-    <t>CV ("вокруг-делать")</t>
-  </si>
-  <si>
-    <t>Не спрашивал про конкретно эту конструкцию, но по аналогии с другими предполагаю, что тут генитив не входит внутрь абсолютивной ИГ</t>
-  </si>
-  <si>
-    <t>CV ("ответ давать")</t>
-  </si>
-  <si>
-    <t>CV (открыть-делать)</t>
-  </si>
-  <si>
     <t>POSTtti</t>
   </si>
   <si>
     <t>POSTtti_GEN</t>
   </si>
   <si>
-    <t>NV ("от X-а запах Y-а имеется"), не факт, что надо засчитывать</t>
-  </si>
-  <si>
-    <t>Что-то вроде "перешел на другую сторону дороги", где "на другую сторону" -- наречие, восходящее к ИГ</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что "читать", 108</t>
-  </si>
-  <si>
-    <t>PREF (SUB; ESS)</t>
-  </si>
-  <si>
-    <t>Букв. "ловить"</t>
-  </si>
-  <si>
-    <t>CV ("помощь сделал")</t>
-  </si>
-  <si>
-    <t>PREF (ON; DOWN); букв. "ударить"</t>
-  </si>
-  <si>
-    <t>Мне не засчитать (букв. "лицо Х-а порезалось Y-ом")</t>
-  </si>
-  <si>
-    <t>PREF (ON; DOWN)</t>
-  </si>
-  <si>
-    <t>LV. Именно про этот предикат РМ написал, что глагол требует просто комитатива, а не сочетания IN и COMIT, но поскольку ситуация такая же, как в других глаголах, а COMIT без IN у меня не встречается, пишу INCOMIT</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что 36, изготовлять</t>
-  </si>
-  <si>
-    <t>PREF ("из рук"); CAUS</t>
-  </si>
-  <si>
-    <t>Букв. "X -- начальник Y-а"; надо принять принципиальное решение по поводу таких случаев</t>
-  </si>
-  <si>
-    <t>SUPLAT_POST_ELAT</t>
-  </si>
-  <si>
-    <t>Вообще-то РМ написал, что лучше считать частью модели управления ELAT, а не POSTELAT</t>
-  </si>
-  <si>
-    <t>PREF (ON; ELAT; DOWN)</t>
-  </si>
-  <si>
-    <t>PREF (SUPER)</t>
-  </si>
-  <si>
-    <t>PREF (SUPER); другая форма того же глагола, что в 91 (слушать), там согласование есть из-за "вшитой" копулы</t>
-  </si>
-  <si>
-    <t>LV; PREF (UP)</t>
-  </si>
-  <si>
-    <t>PREF (ON; ELAT)</t>
-  </si>
-  <si>
-    <t>CV (сон-DOWN-стать)</t>
-  </si>
-  <si>
-    <t>Невозможно засчитать, так как можно сказать "А согласился с тем, что сказал Б", но не "А согласился с Б"</t>
-  </si>
-  <si>
-    <t>PREF (UP). Тот же глагол, что 23, драться</t>
-  </si>
-  <si>
-    <t>букв. "быть"</t>
-  </si>
-  <si>
-    <t>CV (букв. "ружье кинул")</t>
-  </si>
-  <si>
-    <t>PREF (вместе; ON)</t>
-  </si>
-  <si>
-    <t>LV; CAUS</t>
-  </si>
-  <si>
     <t>SUB</t>
   </si>
   <si>
     <t>ABS_SUB</t>
   </si>
   <si>
-    <t>PREF (UNDER)</t>
-  </si>
-  <si>
-    <t>CV ("поцелуй дать")</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что "петь", 69</t>
-  </si>
-  <si>
     <t>ERG_GEN</t>
   </si>
   <si>
-    <t>CV ("уважение делать"). ИГ в генитиве отрывается от "уважения"</t>
-  </si>
-  <si>
-    <t>Получено только "не любит", не засчитываю</t>
-  </si>
-  <si>
-    <t>NV ("быть радость-ADV")</t>
-  </si>
-  <si>
-    <t>LV (согласование с внутренним аргументом; "любовь")</t>
-  </si>
-  <si>
-    <t>То же, что "верить" (7); PREF (ON)</t>
-  </si>
-  <si>
     <t>GEN_SUPLAT</t>
   </si>
   <si>
-    <t>LV; PREF (ON). Согласование с внутренним аргументом</t>
-  </si>
-  <si>
-    <t>NV ("злой-ADV есть"). Не засчитываю, так как это гораздо более широкое значение</t>
-  </si>
-  <si>
-    <t>LV. То же, что 123</t>
-  </si>
-  <si>
-    <t>LV; Тот же глагол, что для поражаться (125)</t>
-  </si>
-  <si>
-    <t>CAUS, тот же глагол, что 58, нравиться</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что "любить", 46 (и 30, зависеть)</t>
-  </si>
-  <si>
-    <t>LV. То же, что 117</t>
-  </si>
-  <si>
-    <t>LV; CAUS (от 127, огорчаться)</t>
-  </si>
-  <si>
-    <t>LV; Тот же глагол, что для удивляться (118)</t>
-  </si>
-  <si>
-    <t>Тот же перевод, что для "ненавидеть" (57), не засчитываю</t>
-  </si>
-  <si>
     <t>bagandan</t>
   </si>
   <si>
     <t>ABS_bagandan</t>
   </si>
   <si>
-    <t>Не выразить нужное значение, только "стесняется того, что он маленький"</t>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Цепочка из экспериенцера/посессора и части тела как минимум разрывается, засчитываю как две разных ИГ</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Букв. "стать"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Показатель sa-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreement: no. </t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON+UP). В файле с глоссами DAT и SUPER отглоссированы по-разному, но при этом это один и тот же показатель и, по словам РМ, "некоторые их считают одним падежом, либо считают, что датив произошел от суперлатива". Для меня это, очевидно, одно и то же</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что "верить" (114). PREF (ON)</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (UP)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("делать влияние")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ВНУТРЬ+UP)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON), NV</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ВНЕ)</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (ВНЕ)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CAUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreement: yes. </t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (В.РУКИ)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (POST)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (UP). Тот же глагол, что 99, ссориться</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV. Не засчитываю (X -- друг Y-а)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV. То же, что 48, мечтать</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (POST, DOWN)</t>
+  </si>
+  <si>
+    <t>Agreement: no. LV</t>
+  </si>
+  <si>
+    <t>Agreement: yes. букв. "хотеть", то же, что 46 (хотеть) и 121 (любить)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (SUB, ELAT). Пока включил в модель управления именно ANTEELAT, хотя в этом случае Расул предлагал считать, что в модель входит только просто ELAT</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что 85, рожать</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (издевательство делать)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Это просто "быть"/"иметься"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON); LV</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (DOWN); Букв. "Х дом не.быть остался"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. хвала-делать</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что "хотеть", 121 (и 30, зависеть)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV. То же, что 25, думать</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (ON)</t>
+  </si>
+  <si>
+    <t>Agreement: no. Это конструкция с неназванным агенсом (типа "(люди) этой вещи говорят "компас"")</t>
+  </si>
+  <si>
+    <t>Agreement: *. получено только "бить". Не засчитываю.</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NEG + хватать (5); PREF (ON; UP). На прямой вопрос о структуре составляющих Расул написал, что посессор не входит в группу абсолютива</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (букв. "видеть не любит"), идиоматическое прочтение</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CAUS, тот же глагол, что 119, любить-2</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("вокруг-делать")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Не спрашивал про конкретно эту конструкцию, но по аналогии с другими предполагаю, что тут генитив не входит внутрь абсолютивной ИГ</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("ответ давать")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (открыть-делать)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV ("от X-а запах Y-а имеется"), не факт, что надо засчитывать</t>
+  </si>
+  <si>
+    <t>Agreement: no. Что-то вроде "перешел на другую сторону дороги", где "на другую сторону" -- наречие, восходящее к ИГ</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что "читать", 108</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (SUB; ESS)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Букв. "ловить"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("помощь сделал")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON; DOWN); букв. "ударить"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Мне не засчитать (букв. "лицо Х-а порезалось Y-ом")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON; DOWN)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV. Именно про этот предикат РМ написал, что глагол требует просто комитатива, а не сочетания IN и COMIT, но поскольку ситуация такая же, как в других глаголах, а COMIT без IN у меня не встречается, пишу INCOMIT</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что 36, изготовлять</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF ("из рук"); CAUS</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Букв. "X -- начальник Y-а"; надо принять принципиальное решение по поводу таких случаев</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Вообще-то РМ написал, что лучше считать частью модели управления ELAT, а не POSTELAT</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (ON; ELAT; DOWN)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (SUPER)</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (SUPER); другая форма того же глагола, что в 91 (слушать), там согласование есть из-за "вшитой" копулы</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; PREF (UP)</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (ON; ELAT)</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (сон-DOWN-стать)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Невозможно засчитать, так как можно сказать "А согласился с тем, что сказал Б", но не "А согласился с Б"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (UP). Тот же глагол, что 23, драться</t>
+  </si>
+  <si>
+    <t>Agreement: yes. букв. "быть"</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (букв. "ружье кинул")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (вместе; ON)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; CAUS</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (UNDER)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("поцелуй дать")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что "петь", 69</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV ("уважение делать"). ИГ в генитиве отрывается от "уважения"</t>
+  </si>
+  <si>
+    <t>Agreement: *. Получено только "не любит", не засчитываю</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV ("быть радость-ADV")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV (согласование с внутренним аргументом; "любовь")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что "верить" (7); PREF (ON)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; PREF (ON). Согласование с внутренним аргументом</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV ("злой-ADV есть"). Не засчитываю, так как это гораздо более широкое значение</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV. То же, что 123</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; Тот же глагол, что для поражаться (125)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CAUS, тот же глагол, что 58, нравиться</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же глагол, что "любить", 46 (и 30, зависеть)</t>
+  </si>
+  <si>
+    <t>Agreement: no. LV. То же, что 117</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; CAUS (от 127, огорчаться)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV; Тот же глагол, что для удивляться (118)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Тот же перевод, что для "ненавидеть" (57), не засчитываю</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Не выразить нужное значение, только "стесняется того, что он маленький"</t>
+  </si>
+  <si>
+    <t>ANTE.ELAT</t>
+  </si>
+  <si>
+    <t>ABS_ANTE.ELAT</t>
+  </si>
+  <si>
+    <t>ILL.COMIT</t>
+  </si>
+  <si>
+    <t>ABS_ILL.COMIT</t>
+  </si>
+  <si>
+    <t>ILL.ELAT</t>
+  </si>
+  <si>
+    <t>ABS_ILL.ELAT</t>
+  </si>
+  <si>
+    <t>POST.ELAT</t>
+  </si>
+  <si>
+    <t>ABS_POST.ELAT</t>
+  </si>
+  <si>
+    <t>SUPLAT.CONT</t>
+  </si>
+  <si>
+    <t>ABS_SUPLAT.CONT</t>
+  </si>
+  <si>
+    <t>SUPLAT_SUPLAT.CONT</t>
+  </si>
+  <si>
+    <t>SUPLAT_POST.ELAT</t>
+  </si>
+  <si>
+    <t>SUPLAT_ABS(NO.AGR)</t>
+  </si>
+  <si>
+    <t>ABS(NO.AGR)</t>
   </si>
 </sst>
 </file>
@@ -2762,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2789,9 +2801,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,8 +2863,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>79</v>
       </c>
@@ -2876,30 +2896,30 @@
         <v>536</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>663</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>79</v>
       </c>
@@ -2925,30 +2945,30 @@
         <v>537</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>665</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>79</v>
       </c>
@@ -2974,30 +2994,30 @@
         <v>538</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>666</v>
+        <v>779</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>668</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>79</v>
       </c>
@@ -3023,14 +3043,16 @@
         <v>539</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -3039,10 +3061,12 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>79</v>
       </c>
@@ -3068,30 +3092,30 @@
         <v>540</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>672</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>79</v>
       </c>
@@ -3117,30 +3141,30 @@
         <v>541</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>79</v>
       </c>
@@ -3166,30 +3190,30 @@
         <v>542</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>675</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>79</v>
       </c>
@@ -3215,28 +3239,30 @@
         <v>543</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>676</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>79</v>
       </c>
@@ -3262,28 +3288,30 @@
         <v>544</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>79</v>
       </c>
@@ -3309,30 +3337,30 @@
         <v>545</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>680</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>79</v>
       </c>
@@ -3358,30 +3386,30 @@
         <v>546</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>79</v>
       </c>
@@ -3407,30 +3435,30 @@
         <v>547</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>684</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>79</v>
       </c>
@@ -3456,30 +3484,30 @@
         <v>548</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>687</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>79</v>
       </c>
@@ -3505,30 +3533,30 @@
         <v>549</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>688</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>79</v>
       </c>
@@ -3554,28 +3582,30 @@
         <v>550</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>688</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>79</v>
       </c>
@@ -3601,28 +3631,30 @@
         <v>551</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>689</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>79</v>
       </c>
@@ -3648,16 +3680,16 @@
         <v>552</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3666,10 +3698,12 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>79</v>
       </c>
@@ -3695,28 +3729,30 @@
         <v>553</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>79</v>
       </c>
@@ -3742,30 +3778,30 @@
         <v>554</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>694</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>79</v>
       </c>
@@ -3791,14 +3827,16 @@
         <v>555</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3807,10 +3845,12 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>79</v>
       </c>
@@ -3836,16 +3876,16 @@
         <v>556</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3854,10 +3894,12 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>79</v>
       </c>
@@ -3883,16 +3925,16 @@
         <v>557</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3901,10 +3943,12 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>79</v>
       </c>
@@ -3930,30 +3974,30 @@
         <v>558</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>697</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>79</v>
       </c>
@@ -3979,26 +4023,28 @@
         <v>559</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K25" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>79</v>
       </c>
@@ -4024,30 +4070,30 @@
         <v>560</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>701</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>79</v>
       </c>
@@ -4073,14 +4119,16 @@
         <v>561</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -4089,10 +4137,12 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>79</v>
       </c>
@@ -4118,14 +4168,16 @@
         <v>562</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -4134,10 +4186,12 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>79</v>
       </c>
@@ -4163,30 +4217,30 @@
         <v>563</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>702</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>79</v>
       </c>
@@ -4212,30 +4266,30 @@
         <v>564</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>79</v>
       </c>
@@ -4261,30 +4315,30 @@
         <v>565</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>79</v>
       </c>
@@ -4310,30 +4364,30 @@
         <v>566</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>79</v>
       </c>
@@ -4359,30 +4413,30 @@
         <v>567</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>79</v>
       </c>
@@ -4408,16 +4462,16 @@
         <v>568</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4426,10 +4480,12 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>79</v>
       </c>
@@ -4455,14 +4511,16 @@
         <v>569</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K35" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4471,10 +4529,12 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>79</v>
       </c>
@@ -4500,30 +4560,30 @@
         <v>570</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>666</v>
+        <v>779</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>708</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>79</v>
       </c>
@@ -4549,28 +4609,30 @@
         <v>571</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>709</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>79</v>
       </c>
@@ -4596,30 +4658,30 @@
         <v>572</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>79</v>
       </c>
@@ -4645,30 +4707,30 @@
         <v>573</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>79</v>
       </c>
@@ -4694,16 +4756,16 @@
         <v>574</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4712,10 +4774,12 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>79</v>
       </c>
@@ -4741,14 +4805,16 @@
         <v>575</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4757,10 +4823,12 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>79</v>
       </c>
@@ -4786,30 +4854,30 @@
         <v>576</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>79</v>
       </c>
@@ -4835,30 +4903,30 @@
         <v>577</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>79</v>
       </c>
@@ -4884,14 +4952,16 @@
         <v>578</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4900,10 +4970,12 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>79</v>
       </c>
@@ -4929,14 +5001,16 @@
         <v>579</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4945,10 +5019,12 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>79</v>
       </c>
@@ -4974,28 +5050,30 @@
         <v>580</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K46" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>720</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>79</v>
       </c>
@@ -5021,30 +5099,30 @@
         <v>565</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>721</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>79</v>
       </c>
@@ -5070,30 +5148,30 @@
         <v>581</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>79</v>
       </c>
@@ -5119,30 +5197,30 @@
         <v>560</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>723</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>79</v>
       </c>
@@ -5168,14 +5246,16 @@
         <v>582</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5184,10 +5264,12 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>79</v>
       </c>
@@ -5213,28 +5295,30 @@
         <v>583</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>79</v>
       </c>
@@ -5260,30 +5344,30 @@
         <v>584</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>726</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>79</v>
       </c>
@@ -5309,26 +5393,28 @@
         <v>585</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>79</v>
       </c>
@@ -5354,30 +5440,30 @@
         <v>586</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>79</v>
       </c>
@@ -5403,16 +5489,16 @@
         <v>587</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5421,10 +5507,12 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>79</v>
       </c>
@@ -5450,14 +5538,16 @@
         <v>588</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5466,10 +5556,12 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>79</v>
       </c>
@@ -5495,30 +5587,30 @@
         <v>589</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>728</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>79</v>
       </c>
@@ -5544,30 +5636,30 @@
         <v>590</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>729</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>79</v>
       </c>
@@ -5593,30 +5685,30 @@
         <v>591</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>730</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>79</v>
       </c>
@@ -5642,30 +5734,30 @@
         <v>592</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>79</v>
       </c>
@@ -5691,28 +5783,30 @@
         <v>593</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>731</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>79</v>
       </c>
@@ -5738,30 +5832,30 @@
         <v>594</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>732</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>79</v>
       </c>
@@ -5787,30 +5881,30 @@
         <v>595</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>79</v>
       </c>
@@ -5836,28 +5930,30 @@
         <v>596</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>734</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>79</v>
       </c>
@@ -5883,30 +5979,30 @@
         <v>597</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>79</v>
       </c>
@@ -5932,30 +6028,30 @@
         <v>598</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>79</v>
       </c>
@@ -5981,14 +6077,16 @@
         <v>599</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5997,10 +6095,12 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>79</v>
       </c>
@@ -6026,30 +6126,30 @@
         <v>600</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>735</v>
+        <v>680</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>79</v>
       </c>
@@ -6075,30 +6175,30 @@
         <v>601</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>738</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>79</v>
       </c>
@@ -6124,28 +6224,30 @@
         <v>602</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>739</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>79</v>
       </c>
@@ -6171,14 +6273,16 @@
         <v>603</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -6187,10 +6291,12 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>79</v>
       </c>
@@ -6216,14 +6322,16 @@
         <v>604</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -6232,10 +6340,12 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>79</v>
       </c>
@@ -6261,28 +6371,30 @@
         <v>605</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>689</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>79</v>
       </c>
@@ -6308,16 +6420,16 @@
         <v>606</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -6326,10 +6438,12 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>79</v>
       </c>
@@ -6355,28 +6469,30 @@
         <v>607</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K75" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>79</v>
       </c>
@@ -6402,28 +6518,30 @@
         <v>608</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>741</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>79</v>
       </c>
@@ -6449,30 +6567,30 @@
         <v>609</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>79</v>
       </c>
@@ -6498,30 +6616,30 @@
         <v>610</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>742</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>79</v>
       </c>
@@ -6547,14 +6665,16 @@
         <v>611</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6563,10 +6683,12 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6592,30 +6714,30 @@
         <v>612</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>743</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -6641,26 +6763,28 @@
         <v>613</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J81" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K81" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>744</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -6686,30 +6810,30 @@
         <v>614</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>745</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -6735,30 +6859,30 @@
         <v>615</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -6784,30 +6908,30 @@
         <v>616</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>79</v>
       </c>
@@ -6833,30 +6957,30 @@
         <v>617</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>746</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>79</v>
       </c>
@@ -6882,28 +7006,30 @@
         <v>571</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>747</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>79</v>
       </c>
@@ -6929,28 +7055,30 @@
         <v>618</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>79</v>
       </c>
@@ -6976,30 +7104,30 @@
         <v>619</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>79</v>
       </c>
@@ -7025,30 +7153,30 @@
         <v>620</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>79</v>
       </c>
@@ -7074,30 +7202,30 @@
         <v>621</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>694</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>79</v>
       </c>
@@ -7123,30 +7251,30 @@
         <v>622</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>79</v>
       </c>
@@ -7172,30 +7300,30 @@
         <v>623</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>753</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>79</v>
       </c>
@@ -7221,30 +7349,30 @@
         <v>624</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>754</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>79</v>
       </c>
@@ -7270,14 +7398,16 @@
         <v>625</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7286,10 +7416,12 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>79</v>
       </c>
@@ -7315,30 +7447,30 @@
         <v>626</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>755</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>79</v>
       </c>
@@ -7364,30 +7496,30 @@
         <v>627</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>79</v>
       </c>
@@ -7413,28 +7545,30 @@
         <v>628</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>756</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>79</v>
       </c>
@@ -7460,30 +7594,30 @@
         <v>629</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>757</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>79</v>
       </c>
@@ -7509,26 +7643,28 @@
         <v>630</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K99" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L99" s="5"/>
-      <c r="M99" s="5" t="s">
-        <v>758</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>754</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>79</v>
       </c>
@@ -7554,30 +7690,30 @@
         <v>558</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>79</v>
       </c>
@@ -7603,30 +7739,30 @@
         <v>631</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>760</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>79</v>
       </c>
@@ -7652,30 +7788,30 @@
         <v>632</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>79</v>
       </c>
@@ -7701,28 +7837,30 @@
         <v>633</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>762</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>79</v>
       </c>
@@ -7748,28 +7886,30 @@
         <v>634</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>79</v>
       </c>
@@ -7795,30 +7935,30 @@
         <v>635</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>764</v>
+        <v>682</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>766</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>79</v>
       </c>
@@ -7844,28 +7984,30 @@
         <v>636</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>79</v>
       </c>
@@ -7891,16 +8033,16 @@
         <v>637</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7909,10 +8051,12 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>79</v>
       </c>
@@ -7938,30 +8082,30 @@
         <v>638</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>767</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>761</v>
+      </c>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>79</v>
       </c>
@@ -7987,28 +8131,30 @@
         <v>602</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>768</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>79</v>
       </c>
@@ -8034,28 +8180,30 @@
         <v>639</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>79</v>
       </c>
@@ -8081,30 +8229,30 @@
         <v>640</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>770</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>79</v>
       </c>
@@ -8130,26 +8278,28 @@
         <v>641</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K112" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L112" s="5"/>
-      <c r="M112" s="5" t="s">
-        <v>771</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>79</v>
       </c>
@@ -8175,30 +8325,30 @@
         <v>642</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>772</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>765</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>79</v>
       </c>
@@ -8224,30 +8374,30 @@
         <v>643</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>773</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>79</v>
       </c>
@@ -8273,30 +8423,30 @@
         <v>542</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>774</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>767</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>79</v>
       </c>
@@ -8322,30 +8472,30 @@
         <v>644</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>776</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>79</v>
       </c>
@@ -8371,26 +8521,28 @@
         <v>645</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J117" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K117" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L117" s="5"/>
-      <c r="M117" s="5" t="s">
-        <v>777</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>79</v>
       </c>
@@ -8416,30 +8568,30 @@
         <v>646</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>778</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>770</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>79</v>
       </c>
@@ -8465,30 +8617,30 @@
         <v>647</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>779</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>79</v>
       </c>
@@ -8514,30 +8666,30 @@
         <v>591</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>780</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>772</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>79</v>
       </c>
@@ -8563,30 +8715,30 @@
         <v>648</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>79</v>
       </c>
@@ -8612,30 +8764,30 @@
         <v>565</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>781</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>773</v>
+      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>79</v>
       </c>
@@ -8661,30 +8813,30 @@
         <v>649</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>79</v>
       </c>
@@ -8710,30 +8862,30 @@
         <v>650</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>782</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>774</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>79</v>
       </c>
@@ -8759,28 +8911,30 @@
         <v>651</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>665</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>783</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>775</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>79</v>
       </c>
@@ -8806,30 +8960,30 @@
         <v>647</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>784</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>79</v>
       </c>
@@ -8855,26 +9009,28 @@
         <v>590</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K127" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>785</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>777</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>79</v>
       </c>
@@ -8900,30 +9056,30 @@
         <v>652</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>786</v>
+        <v>686</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>79</v>
       </c>
@@ -8949,30 +9105,30 @@
         <v>653</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>79</v>
       </c>
@@ -8998,30 +9154,30 @@
         <v>654</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>79</v>
       </c>
@@ -9047,27 +9203,29 @@
         <v>655</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="J131" s="5"/>
+        <v>656</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="K131" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L131" s="5"/>
-      <c r="M131" s="5" t="s">
-        <v>788</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="7" t="s">
-        <v>656</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Dargwa_Icari_data.xlsx
+++ b/sources/Dargwa_Icari_data.xlsx
@@ -2776,9 +2776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/sources/Dargwa_Icari_data.xlsx
+++ b/sources/Dargwa_Icari_data.xlsx
@@ -2776,7 +2776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5348,7 +5350,7 @@
         <v>792</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>8</v>
+        <v>674</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>791</v>

--- a/sources/Dargwa_Icari_data.xlsx
+++ b/sources/Dargwa_Icari_data.xlsx
@@ -2253,9 +2253,6 @@
     <t>Agreement: yes. PREF (ON; DOWN)</t>
   </si>
   <si>
-    <t>Agreement: yes. LV. Именно про этот предикат РМ написал, что глагол требует просто комитатива, а не сочетания IN и COMIT, но поскольку ситуация такая же, как в других глаголах, а COMIT без IN у меня не встречается, пишу INCOMIT</t>
-  </si>
-  <si>
     <t>Agreement: yes. Тот же глагол, что 36, изготовлять</t>
   </si>
   <si>
@@ -2367,12 +2364,6 @@
     <t>ABS_ANTE.ELAT</t>
   </si>
   <si>
-    <t>ILL.COMIT</t>
-  </si>
-  <si>
-    <t>ABS_ILL.COMIT</t>
-  </si>
-  <si>
     <t>ILL.ELAT</t>
   </si>
   <si>
@@ -2401,6 +2392,15 @@
   </si>
   <si>
     <t>ABS(NO.AGR)</t>
+  </si>
+  <si>
+    <t>ILL.COM</t>
+  </si>
+  <si>
+    <t>ABS_ILL.COM</t>
+  </si>
+  <si>
+    <t>Agreement: yes. LV. Именно про этот предикат РМ написал, что глагол требует просто комитатива, а не сочетания IN и COM, но поскольку ситуация такая же, как в других глаголах, а COM без IN у меня не встречается, пишу INCOM</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2997,13 +2997,13 @@
         <v>658</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -3977,13 +3977,13 @@
         <v>658</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -4073,13 +4073,13 @@
         <v>658</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -4269,13 +4269,13 @@
         <v>662</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>674</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4318,13 +4318,13 @@
         <v>658</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4416,13 +4416,13 @@
         <v>658</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4563,13 +4563,13 @@
         <v>658</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4759,13 +4759,13 @@
         <v>658</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -5200,13 +5200,13 @@
         <v>658</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -5347,13 +5347,13 @@
         <v>662</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>674</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -6960,13 +6960,13 @@
         <v>658</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6975,7 +6975,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
@@ -7024,7 +7024,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
@@ -7073,7 +7073,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
@@ -7122,7 +7122,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
@@ -7156,13 +7156,13 @@
         <v>662</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>674</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -7171,7 +7171,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
@@ -7269,7 +7269,7 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
@@ -7318,7 +7318,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
@@ -7367,7 +7367,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
@@ -7450,13 +7450,13 @@
         <v>658</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7465,7 +7465,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
@@ -7563,7 +7563,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
@@ -7612,7 +7612,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
@@ -7659,7 +7659,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
@@ -7693,13 +7693,13 @@
         <v>658</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7708,7 +7708,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
@@ -7757,7 +7757,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
@@ -7806,7 +7806,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
@@ -7855,7 +7855,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
@@ -7904,7 +7904,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
@@ -7953,7 +7953,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
@@ -8100,7 +8100,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
@@ -8149,7 +8149,7 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
@@ -8247,7 +8247,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
@@ -8294,7 +8294,7 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
@@ -8343,7 +8343,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
@@ -8392,7 +8392,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
@@ -8441,7 +8441,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
@@ -8490,7 +8490,7 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
@@ -8537,7 +8537,7 @@
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
@@ -8586,7 +8586,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
@@ -8635,7 +8635,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
@@ -8684,7 +8684,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
@@ -8782,7 +8782,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
@@ -8880,7 +8880,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
@@ -8929,7 +8929,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
@@ -8978,7 +8978,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
@@ -9025,7 +9025,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
@@ -9219,7 +9219,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
